--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>760251.945548747</v>
+        <v>839045.6479924405</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5389411.289474638</v>
+        <v>5739665.974240761</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9704516.315063084</v>
+        <v>9561717.972910352</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>190.1773217090834</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>257.5356317307353</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3343964518633</v>
       </c>
       <c r="H3" t="n">
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>122.6942204073865</v>
+        <v>5.667139474864569</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>276.4896811987715</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>29.63968479793985</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>61.53726617445255</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>193.1994278308476</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>145.247790201753</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>77.09126080509749</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>105.5027752869404</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>1.194812067118038</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.152727013336042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>48.9287466088244</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.7296567862619</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>253.0207069265288</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>4.791624857389747</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>4.44362591409764</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>88.34375243347375</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.6125525389874</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>283.9746808062648</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2138,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>168.1158122680967</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>6.380068175848605</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>111.9187566128688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>35.19569619650095</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>77.31354443380498</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>26.30878201733128</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>112.3905097014211</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>38.66376279205368</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>205.1127822067366</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>223.0973954614424</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2970,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>47.41254713315928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>38.86225679397966</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>168.1158122680972</v>
+        <v>243.2391485592445</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>53.1992054069342</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -3238,7 +3240,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>105.7580505000007</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>210.0946544764316</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>168.1158122680972</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>103.6547954827588</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>61.17118126752724</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>228.5394683647129</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>38.87667447859801</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>106.5867442799596</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>300.4616965878242</v>
       </c>
       <c r="H41" t="n">
-        <v>173.557885171367</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5212688564308</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3952,13 +3954,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>119.0525754178801</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>229.7965692041384</v>
       </c>
       <c r="H44" t="n">
-        <v>5.790379538869661</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>117.3367679364072</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991755</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1179.250440354288</v>
+        <v>1798.734238163263</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.250440354288</v>
+        <v>1798.734238163263</v>
       </c>
       <c r="D2" t="n">
-        <v>1179.250440354288</v>
+        <v>1440.468539556513</v>
       </c>
       <c r="E2" t="n">
-        <v>793.4621877560432</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>793.4621877560432</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>377.7574374803321</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4361,19 +4363,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1955.989612394221</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1955.989612394221</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y2" t="n">
-        <v>1565.850280418409</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694942</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>281.0354892056668</v>
+        <v>162.8263165465538</v>
       </c>
       <c r="C4" t="n">
-        <v>281.0354892056668</v>
+        <v>162.8263165465538</v>
       </c>
       <c r="D4" t="n">
-        <v>281.0354892056668</v>
+        <v>162.8263165465538</v>
       </c>
       <c r="E4" t="n">
-        <v>281.0354892056668</v>
+        <v>162.8263165465538</v>
       </c>
       <c r="F4" t="n">
-        <v>281.0354892056668</v>
+        <v>162.8263165465538</v>
       </c>
       <c r="G4" t="n">
-        <v>281.0354892056668</v>
+        <v>162.8263165465538</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485143</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426274</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056668</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X4" t="n">
-        <v>281.0354892056668</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.0354892056668</v>
+        <v>162.8263165465538</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1458.811090838975</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="C5" t="n">
-        <v>1089.848573898563</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D5" t="n">
-        <v>731.582875291813</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E5" t="n">
-        <v>345.7946226935688</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F5" t="n">
-        <v>345.7946226935688</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>345.7946226935688</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2278.819192110861</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878909</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903097</v>
+        <v>1926.050536840746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>430.1310041178875</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>430.1310041178875</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>430.1310041178875</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>262.1445394261661</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>113.4056412896724</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>580.2476435302233</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1091.323932370578</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="C8" t="n">
-        <v>722.3614154301667</v>
+        <v>1043.171881158731</v>
       </c>
       <c r="D8" t="n">
-        <v>364.0957168234162</v>
+        <v>1043.171881158731</v>
       </c>
       <c r="E8" t="n">
-        <v>364.0957168234162</v>
+        <v>657.3836285604871</v>
       </c>
       <c r="F8" t="n">
-        <v>364.0957168234162</v>
+        <v>246.3977237708795</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>3178.890882011441</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2925.360405285277</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2594.297517941706</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2241.528862671592</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>1868.063104410512</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1477.9237724347</v>
+        <v>1798.734238163265</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1021.570547268604</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C10" t="n">
-        <v>852.6343643406968</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D10" t="n">
-        <v>702.5177249283611</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>789.4460866465113</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>500.0289166095506</v>
       </c>
       <c r="X10" t="n">
-        <v>1424.011591242373</v>
+        <v>272.0393657115333</v>
       </c>
       <c r="Y10" t="n">
-        <v>1203.219012098843</v>
+        <v>51.24678656800313</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>2006.793820398078</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1637.831303457666</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1279.565604850916</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>893.7773522526713</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>482.7914474630638</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>67.71899730806024</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,16 +5053,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5071,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539437</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W11" t="n">
-        <v>2741.012457539437</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X11" t="n">
-        <v>2741.012457539437</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2393.393660462199</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>821.9838344741147</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C13" t="n">
-        <v>821.9838344741147</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F13" t="n">
         <v>477.7578170212613</v>
@@ -5194,7 +5196,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5224,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>1513.842048484845</v>
+        <v>1864.571497852645</v>
       </c>
       <c r="W13" t="n">
-        <v>1224.424878447885</v>
+        <v>1575.154327815684</v>
       </c>
       <c r="X13" t="n">
-        <v>1224.424878447885</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.632299304354</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3274.36374404729</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3020.833267321127</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2689.770379977556</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2689.770379977556</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X14" t="n">
-        <v>2689.770379977556</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y14" t="n">
-        <v>2689.770379977556</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368017</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621301</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>624.6477645191717</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>624.6477645191717</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y16" t="n">
-        <v>624.6477645191717</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1605.601998493311</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C17" t="n">
-        <v>1236.639481552899</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D17" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V17" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2755.806928794324</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X17" t="n">
-        <v>2382.341170533245</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y17" t="n">
-        <v>1992.201838557433</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="18">
@@ -5583,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>604.8580214762837</v>
+        <v>718.3439163053883</v>
       </c>
       <c r="C19" t="n">
-        <v>604.8580214762837</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="D19" t="n">
-        <v>604.8580214762837</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="E19" t="n">
-        <v>456.9449278938906</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="F19" t="n">
-        <v>310.0549803959803</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="G19" t="n">
         <v>310.0549803959803</v>
@@ -5668,7 +5670,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W19" t="n">
-        <v>604.8580214762837</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X19" t="n">
-        <v>604.8580214762837</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y19" t="n">
-        <v>604.8580214762837</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>764.341133147311</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>353.3552283577034</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5771,7 +5773,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5786,16 +5788,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W20" t="n">
-        <v>3155.791869823214</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X20" t="n">
-        <v>2782.326111562134</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1876.069090541939</v>
+        <v>1633.759572880769</v>
       </c>
       <c r="C22" t="n">
-        <v>1876.069090541939</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D22" t="n">
-        <v>1876.069090541939</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E22" t="n">
-        <v>1876.069090541939</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>1876.069090541939</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.366253916658</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134516</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>3319.161308300233</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763051</v>
+        <v>3097.39469286976</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888694</v>
+        <v>2808.291825995403</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>2553.607337789516</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645847</v>
+        <v>2264.190167752556</v>
       </c>
       <c r="X22" t="n">
-        <v>1876.069090541939</v>
+        <v>2036.200616854539</v>
       </c>
       <c r="Y22" t="n">
-        <v>1876.069090541939</v>
+        <v>1815.408037711009</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G23" t="n">
         <v>66.5121164321834</v>
@@ -5987,7 +5989,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6020,19 +6022,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>270.9995076393842</v>
+        <v>1783.876212293103</v>
       </c>
       <c r="C25" t="n">
-        <v>102.0633247114773</v>
+        <v>1614.940029365196</v>
       </c>
       <c r="D25" t="n">
-        <v>102.0633247114773</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E25" t="n">
-        <v>102.0633247114773</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F25" t="n">
-        <v>102.0633247114773</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>3247.511332282094</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>2958.408465407738</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046018</v>
+        <v>2703.723977201851</v>
       </c>
       <c r="W25" t="n">
-        <v>680.6375233676413</v>
+        <v>2414.30680716489</v>
       </c>
       <c r="X25" t="n">
-        <v>452.6479724696239</v>
+        <v>2186.317256266873</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.6479724696239</v>
+        <v>1965.524677123343</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1715.892666966215</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C26" t="n">
-        <v>1346.930150025804</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2866.097597267229</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X26" t="n">
-        <v>2492.631839006149</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.492507030337</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>645.3078929297411</v>
+        <v>816.0752021691753</v>
       </c>
       <c r="C28" t="n">
-        <v>476.3717100018342</v>
+        <v>647.1390192412684</v>
       </c>
       <c r="D28" t="n">
-        <v>326.2550705894985</v>
+        <v>497.0223798289327</v>
       </c>
       <c r="E28" t="n">
-        <v>326.2550705894985</v>
+        <v>349.1092862465396</v>
       </c>
       <c r="F28" t="n">
-        <v>212.7293032143256</v>
+        <v>349.1092862465396</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6409,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U28" t="n">
-        <v>1638.191681214136</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V28" t="n">
-        <v>1383.507193008249</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W28" t="n">
-        <v>1094.090022971289</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="X28" t="n">
-        <v>866.1004720732712</v>
+        <v>1218.516246142945</v>
       </c>
       <c r="Y28" t="n">
-        <v>645.3078929297411</v>
+        <v>997.7236669994151</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2212.771568013854</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1843.809051073442</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1485.543352466692</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1099.755099868448</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>688.7691950788401</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>273.6967449238365</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>3100.254917102663</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y29" t="n">
-        <v>2599.371408077976</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.2880032601528</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3518203322459</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6658,13 +6660,13 @@
         <v>1672.610059882606</v>
       </c>
       <c r="W31" t="n">
-        <v>1624.71859813194</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X31" t="n">
-        <v>1396.729047233923</v>
+        <v>1343.938085003241</v>
       </c>
       <c r="Y31" t="n">
-        <v>1175.936468090393</v>
+        <v>1123.145505859711</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2005.586939522201</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6722,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>3155.791869823214</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="W32" t="n">
-        <v>3155.791869823214</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="X32" t="n">
-        <v>2782.326111562134</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y32" t="n">
-        <v>2392.186779586323</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6776,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6783,7 +6785,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>363.7915515140957</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="C34" t="n">
-        <v>363.7915515140957</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="D34" t="n">
-        <v>310.0549803959803</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="E34" t="n">
-        <v>310.0549803959803</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="F34" t="n">
-        <v>310.0549803959803</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T34" t="n">
-        <v>1645.778206672847</v>
+        <v>2937.26316655716</v>
       </c>
       <c r="U34" t="n">
-        <v>1356.675339798491</v>
+        <v>2648.160299682803</v>
       </c>
       <c r="V34" t="n">
-        <v>1101.990851592604</v>
+        <v>2393.475811476917</v>
       </c>
       <c r="W34" t="n">
-        <v>812.5736815556431</v>
+        <v>2104.058641439956</v>
       </c>
       <c r="X34" t="n">
-        <v>584.5841306576258</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="Y34" t="n">
-        <v>363.7915515140957</v>
+        <v>1876.069090541939</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6928,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6968,13 +6970,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3113.388998905705</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="W35" t="n">
-        <v>3155.791869823214</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X35" t="n">
         <v>2782.326111562134</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1989.118339645847</v>
+        <v>2446.713673999041</v>
       </c>
       <c r="C37" t="n">
-        <v>1989.118339645847</v>
+        <v>2277.777491071134</v>
       </c>
       <c r="D37" t="n">
-        <v>1989.118339645847</v>
+        <v>2127.660851658798</v>
       </c>
       <c r="E37" t="n">
-        <v>1841.205246063454</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F37" t="n">
-        <v>1694.315298565544</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G37" t="n">
-        <v>1526.612461940263</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H37" t="n">
-        <v>1526.612461940263</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I37" t="n">
         <v>1464.823389952862</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L37" t="n">
         <v>2030.49300379717</v>
@@ -7105,40 +7107,40 @@
         <v>2374.650049396719</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O37" t="n">
         <v>3015.388025022997</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q37" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193525</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763051</v>
+        <v>3103.839206178698</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888695</v>
+        <v>3103.839206178698</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682808</v>
+        <v>2849.154717972811</v>
       </c>
       <c r="W37" t="n">
-        <v>1989.118339645847</v>
+        <v>2849.154717972811</v>
       </c>
       <c r="X37" t="n">
-        <v>1989.118339645847</v>
+        <v>2849.154717972811</v>
       </c>
       <c r="Y37" t="n">
-        <v>1989.118339645847</v>
+        <v>2628.362138829281</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1569.10175931188</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C38" t="n">
-        <v>1200.139242371468</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D38" t="n">
-        <v>1200.139242371468</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>814.3509897732238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>403.3650849836162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>403.3650849836162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>105.7814845923834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7205,19 +7207,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>3072.075344883007</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W38" t="n">
-        <v>2719.306689612893</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X38" t="n">
-        <v>2345.840931351813</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y38" t="n">
-        <v>1955.701599376001</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I39" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>848.0708164780106</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="C40" t="n">
-        <v>679.1346335501037</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U40" t="n">
-        <v>1927.294548088493</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V40" t="n">
-        <v>1767.918581386758</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W40" t="n">
-        <v>1478.501411349798</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="X40" t="n">
-        <v>1250.51186045178</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="Y40" t="n">
-        <v>1029.71928130825</v>
+        <v>2170.872131622243</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7390,19 @@
         <v>1822.632236038043</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097632</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="D41" t="n">
-        <v>1453.669719097632</v>
+        <v>1464.366537431292</v>
       </c>
       <c r="E41" t="n">
-        <v>1067.881466499387</v>
+        <v>1078.578284833048</v>
       </c>
       <c r="F41" t="n">
-        <v>656.8955617097799</v>
+        <v>667.5923800434407</v>
       </c>
       <c r="G41" t="n">
-        <v>241.8231115547764</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,16 +7411,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7448,10 +7450,10 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339057</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077977</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
         <v>2209.232076102165</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986301</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>700.1577228956174</v>
+        <v>678.2257657051538</v>
       </c>
       <c r="C43" t="n">
-        <v>531.2215399677106</v>
+        <v>678.2257657051538</v>
       </c>
       <c r="D43" t="n">
-        <v>381.1049005553748</v>
+        <v>528.109126292818</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>380.1960327104249</v>
       </c>
       <c r="F43" t="n">
         <v>234.2149530574645</v>
@@ -7567,16 +7569,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U43" t="n">
-        <v>1585.272805973291</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1330.588317767405</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W43" t="n">
-        <v>1330.588317767405</v>
+        <v>1127.007895746701</v>
       </c>
       <c r="X43" t="n">
-        <v>1102.598766869387</v>
+        <v>899.0183448486839</v>
       </c>
       <c r="Y43" t="n">
-        <v>881.8061877258572</v>
+        <v>678.2257657051538</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1638.360256348809</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C44" t="n">
-        <v>1269.397739408397</v>
+        <v>1453.669719097633</v>
       </c>
       <c r="D44" t="n">
-        <v>911.132040801647</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E44" t="n">
-        <v>525.3437882034027</v>
+        <v>709.6157678926379</v>
       </c>
       <c r="F44" t="n">
-        <v>114.3578834137952</v>
+        <v>298.6298631030303</v>
       </c>
       <c r="G44" t="n">
-        <v>114.3578834137952</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,40 +7660,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U44" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V44" t="n">
-        <v>2788.565186649822</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W44" t="n">
-        <v>2788.565186649822</v>
+        <v>2972.837166339058</v>
       </c>
       <c r="X44" t="n">
-        <v>2415.099428388743</v>
+        <v>2599.371408077978</v>
       </c>
       <c r="Y44" t="n">
-        <v>2024.960096412931</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="45">
@@ -7701,70 +7703,70 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7780,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>913.8018420618822</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C46" t="n">
-        <v>744.8656591339753</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D46" t="n">
-        <v>626.3436713194226</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E46" t="n">
-        <v>478.4305777370295</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F46" t="n">
-        <v>331.5406302391191</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V46" t="n">
-        <v>1424.011591242373</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W46" t="n">
-        <v>1134.594421205412</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X46" t="n">
-        <v>1134.594421205412</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y46" t="n">
-        <v>913.8018420618822</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878345</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.9556134883066534</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.3692565058945</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8538,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>255.8421700460952</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>191.7530483631784</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>43.48292083167007</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,16 +22603,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22720,7 +22722,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>24.55728874774236</v>
+        <v>141.5843696802643</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22793,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>18.11808318854895</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>298.1125736721951</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22939,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>43.25932902944801</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23024,22 +23026,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>218.3482749421064</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>58.67017993786712</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>69.34270184147168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>115.2459207102716</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>293.4129523202024</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.0852116427175</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>99.68672640938796</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>190.0418235903385</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>153.1883133533582</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>33.50229141006221</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>377.9422168060908</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>350.2394157065853</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>77.68205582555447</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>13.91044579760359</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23975,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>126.9470448471886</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24026,10 +24028,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.3889571555933</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>113.7908987761684</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24260,13 +24262,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>82.8793596908057</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>130.8301120625273</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24412,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>142.2354048423642</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>328.3742596033517</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,16 +24496,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>33.03053832151014</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>127.3620454669745</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>89.49498218058386</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24734,19 +24736,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>27.89777649745957</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>186.8473985950575</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24974,13 +24976,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>159.6364462020377</v>
+        <v>84.51310991089045</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>95.41626761127816</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>113.7908987761685</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25208,16 +25210,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>40.90051748247038</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>181.1251564493158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>42.77916716381033</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>35.18123914231085</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>154.1943732987677</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>2.700255294327938</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,10 +25447,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>179.9362540566314</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>110.4600290656292</v>
       </c>
       <c r="H41" t="n">
-        <v>121.0498792159534</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.8997791665004229</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>167.1592627877327</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>181.125156449315</v>
       </c>
       <c r="H44" t="n">
-        <v>288.8173848484508</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>31.27870508180514</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>94.35543628911067</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>770100.818868086</v>
+        <v>770100.8188680859</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>845811.9398839655</v>
+        <v>770100.818868086</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>845811.9398839654</v>
+        <v>770100.8188680861</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>845811.9398839656</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>845811.9398839655</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>845811.9398839653</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>845811.9398839655</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>845811.9398839653</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>845811.9398839653</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>845811.9398839656</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839656</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>845811.9398839653</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>845811.9398839655</v>
+        <v>845811.9398839656</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>321270.2120190239</v>
+      </c>
+      <c r="C2" t="n">
         <v>321270.2120190238</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>321270.212019024</v>
+      </c>
+      <c r="E2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="F2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>358046.9539194667</v>
       </c>
-      <c r="E2" t="n">
-        <v>358046.9539194665</v>
-      </c>
-      <c r="F2" t="n">
-        <v>358046.9539194665</v>
-      </c>
-      <c r="G2" t="n">
-        <v>358046.9539194666</v>
-      </c>
       <c r="H2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="I2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="J2" t="n">
         <v>358046.9539194666</v>
@@ -26341,19 +26343,19 @@
         <v>358046.9539194666</v>
       </c>
       <c r="L2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="M2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="O2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>358046.9539194668</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358046.9539194666</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47552.26579341494</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20992.13942082911</v>
+        <v>20992.13942082913</v>
       </c>
       <c r="C4" t="n">
-        <v>10990.29103211609</v>
+        <v>20992.13942082913</v>
       </c>
       <c r="D4" t="n">
-        <v>10990.29103211607</v>
+        <v>20992.13942082914</v>
       </c>
       <c r="E4" t="n">
         <v>10990.29103211609</v>
       </c>
       <c r="F4" t="n">
-        <v>10990.29103211607</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="G4" t="n">
         <v>10990.29103211609</v>
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984473</v>
-      </c>
-      <c r="C5" t="n">
-        <v>107933.9405613933</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26491,13 +26493,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26509,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-907411.4834175699</v>
+        <v>-907411.4834175693</v>
       </c>
       <c r="C6" t="n">
-        <v>35683.98071385152</v>
+        <v>207340.3001583497</v>
       </c>
       <c r="D6" t="n">
-        <v>239122.7223259574</v>
+        <v>207340.3001583501</v>
       </c>
       <c r="E6" t="n">
-        <v>272750.3223259574</v>
+        <v>90677.34250876686</v>
       </c>
       <c r="F6" t="n">
+        <v>272750.3223259572</v>
+      </c>
+      <c r="G6" t="n">
+        <v>272750.3223259573</v>
+      </c>
+      <c r="H6" t="n">
+        <v>272750.3223259573</v>
+      </c>
+      <c r="I6" t="n">
+        <v>272750.3223259573</v>
+      </c>
+      <c r="J6" t="n">
+        <v>105145.1445159746</v>
+      </c>
+      <c r="K6" t="n">
+        <v>272750.3223259572</v>
+      </c>
+      <c r="L6" t="n">
         <v>272750.3223259571</v>
       </c>
-      <c r="G6" t="n">
-        <v>272750.3223259574</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="M6" t="n">
+        <v>225198.0565325423</v>
+      </c>
+      <c r="N6" t="n">
         <v>272750.3223259571</v>
-      </c>
-      <c r="I6" t="n">
-        <v>272750.3223259572</v>
-      </c>
-      <c r="J6" t="n">
-        <v>105145.1445159747</v>
-      </c>
-      <c r="K6" t="n">
-        <v>223640.2296199028</v>
-      </c>
-      <c r="L6" t="n">
-        <v>272750.3223259572</v>
-      </c>
-      <c r="M6" t="n">
-        <v>272750.3223259572</v>
-      </c>
-      <c r="N6" t="n">
-        <v>272750.3223259572</v>
       </c>
       <c r="O6" t="n">
         <v>272750.3223259574</v>
       </c>
       <c r="P6" t="n">
-        <v>272750.3223259572</v>
+        <v>272750.3223259571</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175394</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
+        <v>640.5848321000391</v>
+      </c>
+      <c r="E4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="E4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
     </row>
   </sheetData>
@@ -26957,17 +26959,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>2.273736754432321e-13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>155.7118084757589</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32333,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33503,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33734,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>336.3802954844296</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>421.5663560987685</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>591.2668520422184</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
